--- a/src/assets/zxsj_mb/sjzxtb_k21_rcpygm.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k21_rcpygm.xlsx
@@ -14,27 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>年度</t>
   </si>
   <si>
+    <t>学期</t>
+  </si>
+  <si>
     <t>学校代码</t>
   </si>
   <si>
     <t>学校名称</t>
   </si>
   <si>
+    <t>当学期招生数</t>
+  </si>
+  <si>
     <t>在校学生数</t>
   </si>
   <si>
-    <t>当年度招生数</t>
+    <t>8年学籍有效期内
+毕业人数</t>
+  </si>
+  <si>
+    <t>8年学籍有效期内
+学位获得人数</t>
+  </si>
+  <si>
+    <t>新生流失人数</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>专科</t>
+  </si>
+  <si>
+    <t>续修生本科</t>
+  </si>
+  <si>
+    <t>续修生专科</t>
+  </si>
+  <si>
+    <t>春</t>
   </si>
   <si>
     <t>上海开放大学</t>
   </si>
   <si>
-    <t>奉贤分校</t>
+    <t>秋</t>
   </si>
 </sst>
 </file>
@@ -42,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -61,6 +90,112 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,128 +208,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +246,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +378,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,166 +426,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -427,16 +469,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,20 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +552,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,144 +598,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,22 +1072,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="8.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="2" width="8.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="16.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.41666666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.58333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="8.58333333333333" customWidth="1"/>
+    <col min="9" max="10" width="10.6666666666667" customWidth="1"/>
+    <col min="11" max="12" width="14.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,96 +1105,307 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" ht="25" customHeight="1" spans="1:13">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:13">
+      <c r="A3" s="5">
         <v>2018</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
         <v>51252</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:5">
-      <c r="A3" s="2">
+    <row r="4" ht="25" customHeight="1" spans="1:13">
+      <c r="A4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51252</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:13">
+      <c r="A5" s="5">
         <v>2017</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
         <v>51252</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
+    <row r="6" ht="25" customHeight="1" spans="1:13">
+      <c r="A6" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>51252</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:13">
+      <c r="A7" s="5">
         <v>2016</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
         <v>51252</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:5">
-      <c r="A5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="2">
-        <v>31009</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:5">
-      <c r="A6" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="2">
-        <v>31009</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="8" ht="25" customHeight="1" spans="1:13">
+      <c r="A8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>51252</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
